--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>498539.543373848</v>
+        <v>498103.2276994021</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>162.5198750564089</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>325.498612413836</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>4.252093396917982</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -786,19 +786,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>142.9256561590075</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>268.6107013963115</v>
+        <v>116.0788983323591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>134.9426118205407</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>410.7001569798727</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>132.1670276498208</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>49.55006452295439</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>126.0581714657953</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>4.893747237018169</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>155.9074505985364</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>204.2421984224259</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>68.08955460518013</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>149.290878678703</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1278,7 +1278,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>25.18473070919408</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>85.66489655717935</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.208646707806</v>
+        <v>218.479539216013</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>79.194569388259</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091663</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>130.220899391266</v>
       </c>
       <c r="U11" t="n">
-        <v>119.0742883461838</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
         <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>145.5211447459515</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1503,7 +1503,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>201.7443531921692</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>89.82535758250307</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790356</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.64671682548195</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126139</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.0613910094477</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079554</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.88446135348596</v>
       </c>
       <c r="I13" t="n">
         <v>50.86655653831531</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673262</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>119.6782075553164</v>
       </c>
       <c r="T13" t="n">
-        <v>138.952706237445</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>192.4238797007582</v>
@@ -1591,10 +1591,10 @@
         <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>25.9552491162911</v>
+        <v>28.65769777489758</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>127.9203498046127</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
         <v>286.2199636654877</v>
@@ -1613,10 +1613,10 @@
         <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>320.0484892653209</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.22565700479426</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>267.015123425942</v>
+        <v>232.6429308259223</v>
       </c>
       <c r="X14" t="n">
         <v>286.3153816586886</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.62093493050052</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790354</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548193</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.56808091167428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.0613910094477</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079553</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.88446135348596</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831529</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.1321061567326</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>91.95084667265321</v>
       </c>
       <c r="U16" t="n">
         <v>192.4238797007582</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>143.2597570679445</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2160,7 +2160,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>145.5211447459511</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -2223,7 +2223,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554795</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>261.4420352612603</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189421</v>
+        <v>249.453352218942</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634701</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333757</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213528</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187753</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970852</v>
+        <v>200.8319927970851</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171337</v>
+        <v>42.42795794171329</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.695616754371</v>
+        <v>56.69561675437092</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472036</v>
+        <v>93.45428794472028</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615673</v>
+        <v>123.6754140615672</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014395</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793964</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X26" t="n">
-        <v>249.548770212143</v>
+        <v>249.5487702121429</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083418</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>143.2597570679447</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
@@ -2700,7 +2700,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>190.5961130869169</v>
+        <v>176.0306218014133</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595745</v>
+        <v>53.05874613595736</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135793</v>
+        <v>39.25874098135785</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893632</v>
+        <v>22.88010537893624</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471577</v>
+        <v>21.82785523471568</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290208</v>
+        <v>22.29477956290199</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424991</v>
+        <v>38.56948228424983</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694034</v>
+        <v>29.11784990694025</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176968</v>
+        <v>14.0999450917696</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018699</v>
+        <v>19.36549471018691</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877074</v>
+        <v>82.91159610877065</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908994</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U28" t="n">
         <v>155.6572682542125</v>
@@ -2773,13 +2773,13 @@
         <v>129.466882535583</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061963</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019994</v>
+        <v>100.2788706019993</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.1537383580671</v>
+        <v>91.15373835806702</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>261.4420352612603</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189421</v>
+        <v>249.453352218942</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634701</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333757</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213528</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187753</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8319927970852</v>
+        <v>200.8319927970851</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171337</v>
+        <v>42.42795794171329</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.695616754371</v>
+        <v>56.69561675437092</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472036</v>
+        <v>93.45428794472028</v>
       </c>
       <c r="U29" t="n">
-        <v>123.6754140615673</v>
+        <v>123.6754140615672</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014395</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793964</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X29" t="n">
-        <v>249.548770212143</v>
+        <v>249.5487702121429</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083418</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="30">
@@ -2922,13 +2922,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
         <v>238.9027100790231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595745</v>
+        <v>53.05874613595736</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135793</v>
+        <v>39.25874098135785</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893632</v>
+        <v>22.88010537893624</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471577</v>
+        <v>21.82785523471568</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290208</v>
+        <v>22.29477956290199</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424991</v>
+        <v>38.56948228424983</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694034</v>
+        <v>29.11784990694025</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176968</v>
+        <v>14.0999450917696</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018699</v>
+        <v>19.36549471018691</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877074</v>
+        <v>82.91159610877065</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908994</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
         <v>155.6572682542125</v>
@@ -3010,13 +3010,13 @@
         <v>129.466882535583</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061963</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019994</v>
+        <v>100.2788706019993</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.1537383580671</v>
+        <v>91.15373835806702</v>
       </c>
     </row>
     <row r="32">
@@ -3111,7 +3111,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541866</v>
       </c>
       <c r="E33" t="n">
         <v>145.5577298436975</v>
@@ -3165,7 +3165,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
         <v>238.9027100790231</v>
@@ -3351,7 +3351,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>130.9922385581942</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3636,7 +3636,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3648,7 +3648,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -3819,7 +3819,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>145.5211447459515</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380649</v>
       </c>
       <c r="D44" t="n">
         <v>202.9666599825917</v>
@@ -4062,7 +4062,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>130.9922385581942</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
         <v>133.3468600696244</v>
@@ -4119,7 +4119,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554799</v>
       </c>
       <c r="Y45" t="n">
         <v>190.5961130869169</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1011.825044887696</v>
+        <v>1106.019281201</v>
       </c>
       <c r="C2" t="n">
-        <v>629.8912862205034</v>
+        <v>1106.019281201</v>
       </c>
       <c r="D2" t="n">
-        <v>465.7297962645347</v>
+        <v>1106.019281201</v>
       </c>
       <c r="E2" t="n">
-        <v>465.7297962645347</v>
+        <v>711.2335613071064</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6190096151091</v>
+        <v>701.1227746576808</v>
       </c>
       <c r="G2" t="n">
-        <v>39.51502306929713</v>
+        <v>372.3362974719878</v>
       </c>
       <c r="H2" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J2" t="n">
         <v>111.5135673421028</v>
       </c>
       <c r="K2" t="n">
-        <v>228.7015208236825</v>
+        <v>351.6539393868856</v>
       </c>
       <c r="L2" t="n">
-        <v>576.5868939086288</v>
+        <v>699.5393124718319</v>
       </c>
       <c r="M2" t="n">
-        <v>969.8260601617167</v>
+        <v>1092.77847872492</v>
       </c>
       <c r="N2" t="n">
-        <v>1348.157418849432</v>
+        <v>1348.157418849433</v>
       </c>
       <c r="O2" t="n">
-        <v>1653.162003322266</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P2" t="n">
         <v>1881.31889977832</v>
@@ -4355,25 +4355,25 @@
         <v>1885.11286696071</v>
       </c>
       <c r="S2" t="n">
-        <v>1885.11286696071</v>
+        <v>1697.883891591064</v>
       </c>
       <c r="T2" t="n">
-        <v>1660.753920691721</v>
+        <v>1697.883891591064</v>
       </c>
       <c r="U2" t="n">
-        <v>1405.868584405715</v>
+        <v>1442.998555305058</v>
       </c>
       <c r="V2" t="n">
-        <v>1405.868584405715</v>
+        <v>1106.019281201</v>
       </c>
       <c r="W2" t="n">
-        <v>1405.868584405715</v>
+        <v>1106.019281201</v>
       </c>
       <c r="X2" t="n">
-        <v>1405.868584405715</v>
+        <v>1106.019281201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.868584405715</v>
+        <v>1106.019281201</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.4454982614021</v>
+        <v>707.7125321535441</v>
       </c>
       <c r="C3" t="n">
-        <v>688.7418255023568</v>
+        <v>546.0088593944988</v>
       </c>
       <c r="D3" t="n">
-        <v>549.9031884925689</v>
+        <v>407.1702223847109</v>
       </c>
       <c r="E3" t="n">
         <v>402.8751785494402</v>
@@ -4401,28 +4401,28 @@
         <v>139.4528805225991</v>
       </c>
       <c r="H3" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J3" t="n">
-        <v>39.51502306929713</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="K3" t="n">
-        <v>39.51502306929713</v>
+        <v>329.259722162592</v>
       </c>
       <c r="L3" t="n">
-        <v>405.3368682394128</v>
+        <v>695.0815673327077</v>
       </c>
       <c r="M3" t="n">
-        <v>890.3702217496392</v>
+        <v>1180.114920842934</v>
       </c>
       <c r="N3" t="n">
-        <v>1379.368632232191</v>
+        <v>1583.551202680706</v>
       </c>
       <c r="O3" t="n">
-        <v>1673.655234189159</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="P3" t="n">
         <v>1975.751153464857</v>
@@ -4431,28 +4431,28 @@
         <v>1975.751153464857</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559802</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="S3" t="n">
-        <v>1763.167397572543</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="T3" t="n">
-        <v>1618.798047916979</v>
+        <v>1727.281780725788</v>
       </c>
       <c r="U3" t="n">
-        <v>1400.303255515289</v>
+        <v>1727.281780725788</v>
       </c>
       <c r="V3" t="n">
-        <v>1400.303255515289</v>
+        <v>1498.886158174122</v>
       </c>
       <c r="W3" t="n">
-        <v>1400.303255515289</v>
+        <v>1257.570289407432</v>
       </c>
       <c r="X3" t="n">
-        <v>1202.386267393084</v>
+        <v>1059.653301285226</v>
       </c>
       <c r="Y3" t="n">
-        <v>1009.864941042663</v>
+        <v>867.131974934805</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="C4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="D4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="E4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="F4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="G4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="H4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394054</v>
+        <v>73.11921081394055</v>
       </c>
       <c r="L4" t="n">
         <v>173.7262902142</v>
@@ -4522,16 +4522,16 @@
         <v>571.5742683152296</v>
       </c>
       <c r="V4" t="n">
-        <v>310.8389638736522</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="W4" t="n">
-        <v>39.51502306929713</v>
+        <v>454.3228558583012</v>
       </c>
       <c r="X4" t="n">
-        <v>39.51502306929713</v>
+        <v>223.070391753677</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.51502306929713</v>
+        <v>223.070391753677</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1159.527596805803</v>
+        <v>1170.119692308203</v>
       </c>
       <c r="C5" t="n">
-        <v>1159.527596805803</v>
+        <v>1170.119692308203</v>
       </c>
       <c r="D5" t="n">
-        <v>1159.527596805803</v>
+        <v>797.2957275354263</v>
       </c>
       <c r="E5" t="n">
-        <v>764.7418769119099</v>
+        <v>797.2957275354263</v>
       </c>
       <c r="F5" t="n">
-        <v>628.4362084063132</v>
+        <v>787.1849408860007</v>
       </c>
       <c r="G5" t="n">
-        <v>212.3322218605011</v>
+        <v>372.3362974719878</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J5" t="n">
         <v>111.5135673421028</v>
@@ -4574,13 +4574,13 @@
         <v>699.5393124718319</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.77847872492</v>
+        <v>969.8260601617171</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.109837412635</v>
+        <v>1348.157418849433</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.114421885469</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P5" t="n">
         <v>1881.31889977832</v>
@@ -4592,25 +4592,25 @@
         <v>1975.751153464857</v>
       </c>
       <c r="S5" t="n">
-        <v>1975.751153464857</v>
+        <v>1788.522178095211</v>
       </c>
       <c r="T5" t="n">
-        <v>1751.392207195868</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="U5" t="n">
-        <v>1496.506870909862</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="V5" t="n">
-        <v>1159.527596805803</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="W5" t="n">
-        <v>1159.527596805803</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="X5" t="n">
-        <v>1159.527596805803</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1159.527596805803</v>
+        <v>1564.163231826222</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>779.9891465615533</v>
+        <v>610.0961008691671</v>
       </c>
       <c r="C6" t="n">
-        <v>618.285473802508</v>
+        <v>610.0961008691671</v>
       </c>
       <c r="D6" t="n">
-        <v>618.285473802508</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="E6" t="n">
         <v>471.2574638593792</v>
@@ -4641,55 +4641,55 @@
         <v>107.8973083792361</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J6" t="n">
-        <v>39.51502306929713</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="K6" t="n">
-        <v>243.6975935178118</v>
+        <v>329.259722162592</v>
       </c>
       <c r="L6" t="n">
-        <v>609.5194386879274</v>
+        <v>695.0815673327077</v>
       </c>
       <c r="M6" t="n">
-        <v>1094.552792198154</v>
+        <v>1180.114920842934</v>
       </c>
       <c r="N6" t="n">
-        <v>1583.551202680706</v>
+        <v>1669.113331325486</v>
       </c>
       <c r="O6" t="n">
-        <v>1975.751153464857</v>
+        <v>1817.979523679262</v>
       </c>
       <c r="P6" t="n">
-        <v>1975.751153464857</v>
+        <v>1817.979523679262</v>
       </c>
       <c r="Q6" t="n">
         <v>1975.751153464857</v>
       </c>
       <c r="R6" t="n">
-        <v>1975.751153464857</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="S6" t="n">
-        <v>1822.951666477597</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="T6" t="n">
-        <v>1634.266562643582</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="U6" t="n">
-        <v>1415.771770241892</v>
+        <v>1629.665349441411</v>
       </c>
       <c r="V6" t="n">
-        <v>1187.376147690226</v>
+        <v>1401.269726889745</v>
       </c>
       <c r="W6" t="n">
-        <v>1137.325577465019</v>
+        <v>1159.953858123055</v>
       </c>
       <c r="X6" t="n">
-        <v>939.4085893428141</v>
+        <v>962.0368700008493</v>
       </c>
       <c r="Y6" t="n">
-        <v>939.4085893428141</v>
+        <v>769.5155436504281</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>344.5959304802155</v>
+        <v>319.3271643726061</v>
       </c>
       <c r="C7" t="n">
-        <v>344.5959304802155</v>
+        <v>319.3271643726061</v>
       </c>
       <c r="D7" t="n">
-        <v>191.5240373079783</v>
+        <v>319.3271643726061</v>
       </c>
       <c r="E7" t="n">
-        <v>39.51502306929713</v>
+        <v>319.3271643726061</v>
       </c>
       <c r="F7" t="n">
-        <v>39.51502306929713</v>
+        <v>166.8465093983833</v>
       </c>
       <c r="G7" t="n">
-        <v>39.51502306929713</v>
+        <v>166.8465093983833</v>
       </c>
       <c r="H7" t="n">
-        <v>39.51502306929713</v>
+        <v>166.8465093983833</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394054</v>
+        <v>73.11921081394055</v>
       </c>
       <c r="L7" t="n">
         <v>173.7262902142</v>
@@ -4744,31 +4744,31 @@
         <v>571.5742683152296</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.5742683152296</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="R7" t="n">
-        <v>571.5742683152296</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="S7" t="n">
-        <v>571.5742683152296</v>
+        <v>319.3271643726061</v>
       </c>
       <c r="T7" t="n">
-        <v>571.5742683152296</v>
+        <v>319.3271643726061</v>
       </c>
       <c r="U7" t="n">
-        <v>566.6310892879385</v>
+        <v>319.3271643726061</v>
       </c>
       <c r="V7" t="n">
-        <v>566.6310892879385</v>
+        <v>319.3271643726061</v>
       </c>
       <c r="W7" t="n">
-        <v>566.6310892879385</v>
+        <v>319.3271643726061</v>
       </c>
       <c r="X7" t="n">
-        <v>566.6310892879385</v>
+        <v>319.3271643726061</v>
       </c>
       <c r="Y7" t="n">
-        <v>344.5959304802155</v>
+        <v>319.3271643726061</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.996752736406</v>
+        <v>1007.655061295485</v>
       </c>
       <c r="C8" t="n">
-        <v>841.0629940692133</v>
+        <v>625.7213026282918</v>
       </c>
       <c r="D8" t="n">
-        <v>468.2390292964369</v>
+        <v>625.7213026282918</v>
       </c>
       <c r="E8" t="n">
         <v>468.2390292964369</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1617.040292254425</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1617.040292254425</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.040292254425</v>
+        <v>1401.698600813504</v>
       </c>
       <c r="X8" t="n">
-        <v>1617.040292254425</v>
+        <v>1401.698600813504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.040292254425</v>
+        <v>1401.698600813504</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>718.2609332431787</v>
+        <v>843.0863345441348</v>
       </c>
       <c r="C9" t="n">
-        <v>556.5572604841334</v>
+        <v>681.3826617850896</v>
       </c>
       <c r="D9" t="n">
-        <v>417.7186234743454</v>
+        <v>542.5440247753016</v>
       </c>
       <c r="E9" t="n">
-        <v>270.6906135312166</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>892.8794547815413</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1404.145100904663</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1737.830181815422</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U9" t="n">
-        <v>1737.830181815422</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V9" t="n">
-        <v>1509.434559263756</v>
+        <v>1441.738634214291</v>
       </c>
       <c r="W9" t="n">
-        <v>1268.118690497066</v>
+        <v>1200.422765447601</v>
       </c>
       <c r="X9" t="n">
-        <v>1070.201702374861</v>
+        <v>1002.505777325396</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.6803760244395</v>
+        <v>1002.505777325396</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>287.9270998645308</v>
+        <v>261.4541399077527</v>
       </c>
       <c r="C10" t="n">
-        <v>287.9270998645308</v>
+        <v>261.4541399077527</v>
       </c>
       <c r="D10" t="n">
-        <v>287.9270998645308</v>
+        <v>261.4541399077527</v>
       </c>
       <c r="E10" t="n">
-        <v>287.9270998645308</v>
+        <v>261.4541399077527</v>
       </c>
       <c r="F10" t="n">
-        <v>287.9270998645308</v>
+        <v>261.4541399077527</v>
       </c>
       <c r="G10" t="n">
-        <v>287.9270998645308</v>
+        <v>261.4541399077527</v>
       </c>
       <c r="H10" t="n">
-        <v>128.5544546438046</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4993,19 +4993,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W10" t="n">
-        <v>287.9270998645308</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X10" t="n">
-        <v>287.9270998645308</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y10" t="n">
-        <v>287.9270998645308</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1317.66662339747</v>
+        <v>1237.672108863875</v>
       </c>
       <c r="C11" t="n">
-        <v>1317.66662339747</v>
+        <v>1237.672108863875</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.66662339747</v>
+        <v>1237.672108863875</v>
       </c>
       <c r="E11" t="n">
-        <v>1015.703587761186</v>
+        <v>935.709073227591</v>
       </c>
       <c r="F11" t="n">
-        <v>694.3750813289653</v>
+        <v>614.3805667953704</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0937790407624</v>
+        <v>291.0992645071674</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J11" t="n">
-        <v>123.0992186348914</v>
+        <v>214.074731475774</v>
       </c>
       <c r="K11" t="n">
-        <v>444.0820340995824</v>
+        <v>532.9166187022965</v>
       </c>
       <c r="L11" t="n">
-        <v>882.9429200254112</v>
+        <v>971.7775046281254</v>
       </c>
       <c r="M11" t="n">
-        <v>1276.182086278499</v>
+        <v>1455.992183722096</v>
       </c>
       <c r="N11" t="n">
-        <v>1745.488957807097</v>
+        <v>1834.323542409812</v>
       </c>
       <c r="O11" t="n">
-        <v>2141.469055120814</v>
+        <v>2230.303639723528</v>
       </c>
       <c r="P11" t="n">
-        <v>2369.625951576867</v>
+        <v>2458.460536179582</v>
       </c>
       <c r="Q11" t="n">
-        <v>2555.033718104287</v>
+        <v>2552.892789866119</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.62742699225</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="T11" t="n">
-        <v>2329.09116498087</v>
+        <v>2423.497456092907</v>
       </c>
       <c r="U11" t="n">
-        <v>2208.814106045331</v>
+        <v>2261.43480406451</v>
       </c>
       <c r="V11" t="n">
-        <v>2208.814106045331</v>
+        <v>2017.278214218061</v>
       </c>
       <c r="W11" t="n">
-        <v>2208.814106045331</v>
+        <v>1747.565968333271</v>
       </c>
       <c r="X11" t="n">
-        <v>1919.606649824433</v>
+        <v>1458.358512112373</v>
       </c>
       <c r="Y11" t="n">
-        <v>1618.88747865788</v>
+        <v>1458.358512112373</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C12" t="n">
         <v>768.7097621050845</v>
@@ -5115,16 +5115,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J12" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
         <v>1191.700572135723</v>
@@ -5142,28 +5142,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S12" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>314.5577141381219</v>
+        <v>288.9381750961575</v>
       </c>
       <c r="C13" t="n">
-        <v>237.7644288574112</v>
+        <v>288.9381750961575</v>
       </c>
       <c r="D13" t="n">
-        <v>237.7644288574112</v>
+        <v>228.6889661815292</v>
       </c>
       <c r="E13" t="n">
-        <v>178.5780988763391</v>
+        <v>228.6889661815292</v>
       </c>
       <c r="F13" t="n">
-        <v>178.5780988763391</v>
+        <v>169.0309954649153</v>
       </c>
       <c r="G13" t="n">
-        <v>102.4810345017982</v>
+        <v>169.0309954649153</v>
       </c>
       <c r="H13" t="n">
         <v>102.4810345017982</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499904</v>
       </c>
       <c r="K13" t="n">
         <v>207.7937882505251</v>
@@ -5206,10 +5206,10 @@
         <v>399.3763804916672</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601515</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506346</v>
+        <v>817.7432540506345</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5221,28 +5221,28 @@
         <v>1214.331474543591</v>
       </c>
       <c r="R13" t="n">
-        <v>1157.632377415578</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="S13" t="n">
-        <v>1036.745299076874</v>
+        <v>1093.444396204887</v>
       </c>
       <c r="T13" t="n">
-        <v>896.3890301501621</v>
+        <v>1093.444396204887</v>
       </c>
       <c r="U13" t="n">
-        <v>702.0214748968712</v>
+        <v>899.0768409515961</v>
       </c>
       <c r="V13" t="n">
-        <v>534.1088547129029</v>
+        <v>731.1642207676277</v>
       </c>
       <c r="W13" t="n">
-        <v>340.775137487911</v>
+        <v>537.8305035426359</v>
       </c>
       <c r="X13" t="n">
-        <v>314.5577141381219</v>
+        <v>508.8833340730421</v>
       </c>
       <c r="Y13" t="n">
-        <v>314.5577141381219</v>
+        <v>379.6708595229283</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1504.821428152342</v>
+        <v>1485.455957356406</v>
       </c>
       <c r="C14" t="n">
-        <v>1215.710353742758</v>
+        <v>1196.344882946822</v>
       </c>
       <c r="D14" t="n">
-        <v>935.709073227591</v>
+        <v>916.3436024316545</v>
       </c>
       <c r="E14" t="n">
-        <v>935.709073227591</v>
+        <v>614.3805667953704</v>
       </c>
       <c r="F14" t="n">
-        <v>614.3805667953703</v>
+        <v>614.3805667953704</v>
       </c>
       <c r="G14" t="n">
         <v>291.0992645071674</v>
       </c>
       <c r="H14" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
         <v>123.0992186348914</v>
@@ -5285,19 +5285,19 @@
         <v>893.0759894463856</v>
       </c>
       <c r="M14" t="n">
-        <v>1365.016670881213</v>
+        <v>1377.290668540356</v>
       </c>
       <c r="N14" t="n">
-        <v>1743.348029568929</v>
+        <v>1836.46447064798</v>
       </c>
       <c r="O14" t="n">
-        <v>2139.328126882646</v>
+        <v>2141.469055120814</v>
       </c>
       <c r="P14" t="n">
-        <v>2367.485023338699</v>
+        <v>2369.625951576867</v>
       </c>
       <c r="Q14" t="n">
-        <v>2552.892789866119</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
@@ -5306,22 +5306,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="T14" t="n">
-        <v>2526.522953452979</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="U14" t="n">
-        <v>2364.460301424583</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="V14" t="n">
-        <v>2364.460301424583</v>
+        <v>2310.877128257837</v>
       </c>
       <c r="W14" t="n">
-        <v>2094.748055539793</v>
+        <v>2075.884268837714</v>
       </c>
       <c r="X14" t="n">
-        <v>1805.540599318895</v>
+        <v>1786.676812616816</v>
       </c>
       <c r="Y14" t="n">
-        <v>1504.821428152342</v>
+        <v>1786.676812616816</v>
       </c>
     </row>
     <row r="15">
@@ -5352,13 +5352,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
         <v>706.6672186254962</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>334.3762303561978</v>
+        <v>177.3086060418167</v>
       </c>
       <c r="C16" t="n">
-        <v>257.5829450754868</v>
+        <v>177.3086060418167</v>
       </c>
       <c r="D16" t="n">
-        <v>197.3337361608586</v>
+        <v>177.3086060418167</v>
       </c>
       <c r="E16" t="n">
-        <v>178.5780988763391</v>
+        <v>177.3086060418167</v>
       </c>
       <c r="F16" t="n">
-        <v>178.5780988763391</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="G16" t="n">
-        <v>102.4810345017982</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="H16" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
         <v>83.21408766499906</v>
@@ -5446,7 +5446,7 @@
         <v>608.3453994601516</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506346</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5458,28 +5458,28 @@
         <v>1214.331474543591</v>
       </c>
       <c r="R16" t="n">
-        <v>1157.632377415578</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="S16" t="n">
-        <v>1157.632377415578</v>
+        <v>1093.444396204887</v>
       </c>
       <c r="T16" t="n">
-        <v>1157.632377415578</v>
+        <v>1000.564753101197</v>
       </c>
       <c r="U16" t="n">
-        <v>963.2648221622869</v>
+        <v>806.197197847906</v>
       </c>
       <c r="V16" t="n">
-        <v>795.3522019783186</v>
+        <v>638.2845776639376</v>
       </c>
       <c r="W16" t="n">
-        <v>602.0184847533268</v>
+        <v>444.9508604389458</v>
       </c>
       <c r="X16" t="n">
-        <v>463.5887049063116</v>
+        <v>306.5210805919306</v>
       </c>
       <c r="Y16" t="n">
-        <v>334.3762303561978</v>
+        <v>177.3086060418167</v>
       </c>
     </row>
     <row r="17">
@@ -5516,22 +5516,22 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M17" t="n">
-        <v>1268.831904508741</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N17" t="n">
-        <v>1811.631037687489</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O17" t="n">
-        <v>2116.635622160323</v>
+        <v>1903.509018979632</v>
       </c>
       <c r="P17" t="n">
-        <v>2344.792518616376</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q17" t="n">
         <v>2555.033718104287</v>
@@ -5555,7 +5555,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y17" t="n">
         <v>1588.124215583246</v>
@@ -5616,28 +5616,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T18" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U18" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V18" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W18" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X18" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y18" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="19">
@@ -5750,28 +5750,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K20" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.060512746685</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M20" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N20" t="n">
-        <v>1927.439983488863</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O20" t="n">
-        <v>2232.444567961697</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P20" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5795,7 +5795,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C21" t="n">
         <v>768.7097621050845</v>
@@ -5835,7 +5835,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5871,10 +5871,10 @@
         <v>1465.558574657912</v>
       </c>
       <c r="X21" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y21" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="22">
@@ -5911,13 +5911,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L22" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N22" t="n">
         <v>467.9465500458442</v>
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C23" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478541</v>
+        <v>942.7443621478536</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614927</v>
       </c>
       <c r="F23" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791953</v>
       </c>
       <c r="G23" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409155</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575747</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J23" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L23" t="n">
-        <v>875.5927382556528</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M23" t="n">
-        <v>1384.640850310115</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N23" t="n">
-        <v>1762.97220899783</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O23" t="n">
-        <v>2067.976793470664</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P23" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q23" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6023,7 +6023,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
         <v>2028.08193847085</v>
@@ -6032,7 +6032,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E24" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G24" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H24" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
@@ -6072,7 +6072,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M24" t="n">
         <v>1191.700572135723</v>
@@ -6090,22 +6090,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S24" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X24" t="n">
         <v>1267.641586535707</v>
@@ -6136,19 +6136,19 @@
         <v>52.21328648670347</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K25" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L25" t="n">
         <v>185.3119415069887</v>
@@ -6160,7 +6160,7 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O25" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P25" t="n">
         <v>629.3786802696717</v>
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.39869009398</v>
+        <v>1638.398690093981</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D26" t="n">
-        <v>1143.562317889523</v>
+        <v>1143.562317889524</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133863</v>
+        <v>878.7372736133867</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413127</v>
+        <v>594.5467585413132</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132567</v>
+        <v>308.4034476132574</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283222</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006428</v>
+        <v>262.0593281006429</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183883</v>
+        <v>629.5741583183885</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.833989576297</v>
+        <v>1104.833989576298</v>
       </c>
       <c r="M26" t="n">
         <v>1625.447614002348</v>
@@ -6239,13 +6239,13 @@
         <v>2131.153430863027</v>
       </c>
       <c r="O26" t="n">
-        <v>2563.532473508823</v>
+        <v>2563.532473508824</v>
       </c>
       <c r="P26" t="n">
-        <v>2912.509570884217</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q26" t="n">
-        <v>3134.316282743717</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R26" t="n">
         <v>3134.316282743717</v>
@@ -6254,10 +6254,10 @@
         <v>3077.047982991827</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340595</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672345</v>
+        <v>2857.725051672344</v>
       </c>
       <c r="V26" t="n">
         <v>2650.706453186042</v>
@@ -6269,7 +6269,7 @@
         <v>2166.062733800649</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994243</v>
+        <v>1902.481553994244</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>231.0064684181153</v>
       </c>
       <c r="H27" t="n">
-        <v>131.0686109648134</v>
+        <v>131.0686109648133</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879805</v>
@@ -6348,7 +6348,7 @@
         <v>1279.227237828496</v>
       </c>
       <c r="Y27" t="n">
-        <v>1086.705911478075</v>
+        <v>1101.418528938179</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.63456650424</v>
+        <v>252.6345665042394</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836765</v>
+        <v>212.9792725836759</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291953</v>
+        <v>189.8680550291949</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082703</v>
+        <v>167.81971640827</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518036</v>
+        <v>145.2997370518033</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374097</v>
+        <v>106.3406640374095</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443968</v>
+        <v>76.92869443443959</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J28" t="n">
-        <v>131.1986842898678</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="K28" t="n">
-        <v>292.177330207474</v>
+        <v>223.6649715724806</v>
       </c>
       <c r="L28" t="n">
-        <v>392.7844096077336</v>
+        <v>451.646509145703</v>
       </c>
       <c r="M28" t="n">
-        <v>510.7779157353353</v>
+        <v>697.0144734462676</v>
       </c>
       <c r="N28" t="n">
-        <v>644.5388636532991</v>
+        <v>861.5173317457037</v>
       </c>
       <c r="O28" t="n">
-        <v>870.3769683219516</v>
+        <v>959.9809782413934</v>
       </c>
       <c r="P28" t="n">
-        <v>1060.719910223052</v>
+        <v>1150.323920142494</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142496</v>
+        <v>1150.323920142494</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.76281437463</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396074</v>
+        <v>1047.013727396072</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295086</v>
+        <v>943.7954498295073</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363646</v>
+        <v>786.5658859363634</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125433</v>
+        <v>655.7912571125423</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476986</v>
+        <v>499.5955312476977</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608305</v>
+        <v>398.3037427608297</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708637</v>
+        <v>306.229259570863</v>
       </c>
     </row>
     <row r="29">
@@ -6446,37 +6446,37 @@
         <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133858</v>
+        <v>878.7372736133863</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413122</v>
+        <v>594.5467585413128</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132563</v>
+        <v>308.403447613257</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283222</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006428</v>
+        <v>216.9651972767708</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183883</v>
+        <v>584.4800274945164</v>
       </c>
       <c r="L29" t="n">
-        <v>1104.833989576297</v>
+        <v>1059.739858752426</v>
       </c>
       <c r="M29" t="n">
-        <v>1625.447614002348</v>
+        <v>1580.353483178476</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039156</v>
+        <v>2086.059300039155</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684953</v>
+        <v>2518.438342684952</v>
       </c>
       <c r="P29" t="n">
         <v>2873.969697313968</v>
@@ -6503,10 +6503,10 @@
         <v>2418.132198661399</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800648</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994242</v>
+        <v>1902.481553994244</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>231.0064684181153</v>
       </c>
       <c r="H30" t="n">
-        <v>131.0686109648134</v>
+        <v>131.0686109648133</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J30" t="n">
         <v>122.9404721879805</v>
@@ -6570,10 +6570,10 @@
         <v>2354.035613504762</v>
       </c>
       <c r="T30" t="n">
-        <v>2165.350509670747</v>
+        <v>2180.063127130852</v>
       </c>
       <c r="U30" t="n">
-        <v>1946.855717269057</v>
+        <v>1961.568334729162</v>
       </c>
       <c r="V30" t="n">
         <v>1733.172712177496</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.63456650424</v>
+        <v>252.6345665042394</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836765</v>
+        <v>212.9792725836759</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291953</v>
+        <v>189.8680550291949</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082703</v>
+        <v>167.81971640827</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518036</v>
+        <v>145.2997370518033</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374097</v>
+        <v>106.3406640374095</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443968</v>
+        <v>76.92869443443959</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J31" t="n">
-        <v>62.68632565487435</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>96.29051339951775</v>
+        <v>292.1773302074741</v>
       </c>
       <c r="L31" t="n">
-        <v>324.27205097274</v>
+        <v>392.7844096077337</v>
       </c>
       <c r="M31" t="n">
-        <v>442.2655571003418</v>
+        <v>526.1165219036968</v>
       </c>
       <c r="N31" t="n">
-        <v>688.062357022905</v>
+        <v>644.5388636532972</v>
       </c>
       <c r="O31" t="n">
-        <v>913.9004616915574</v>
+        <v>870.3769683219498</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.719910223052</v>
+        <v>1060.71991022305</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142496</v>
+        <v>1150.323920142494</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.76281437463</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396074</v>
+        <v>1047.013727396072</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295086</v>
+        <v>943.7954498295073</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363646</v>
+        <v>786.5658859363634</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125433</v>
+        <v>655.7912571125423</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476986</v>
+        <v>499.5955312476977</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608305</v>
+        <v>398.3037427608297</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708637</v>
+        <v>306.229259570863</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>507.7241781424431</v>
+        <v>643.1323473443256</v>
       </c>
       <c r="L32" t="n">
-        <v>991.0177204292718</v>
+        <v>1126.425889631154</v>
       </c>
       <c r="M32" t="n">
-        <v>1519.665055884242</v>
+        <v>1550.131445640657</v>
       </c>
       <c r="N32" t="n">
-        <v>2033.40458377384</v>
+        <v>1928.462804328373</v>
       </c>
       <c r="O32" t="n">
-        <v>2473.817337448557</v>
+        <v>2368.875558003089</v>
       </c>
       <c r="P32" t="n">
-        <v>2779.014208260193</v>
+        <v>2732.440623661025</v>
       </c>
       <c r="Q32" t="n">
-        <v>3008.854631148612</v>
+        <v>2962.281046549444</v>
       </c>
       <c r="R32" t="n">
         <v>3008.854631148612</v>
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939.4898531250163</v>
+        <v>924.7772356649118</v>
       </c>
       <c r="C33" t="n">
-        <v>777.7861803659711</v>
+        <v>763.0735629058665</v>
       </c>
       <c r="D33" t="n">
         <v>638.9475433561831</v>
@@ -6813,16 +6813,16 @@
         <v>1944.346484237155</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.663479145594</v>
+        <v>1715.950861685489</v>
       </c>
       <c r="W33" t="n">
-        <v>1489.347610378904</v>
+        <v>1474.634992918799</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.430622256698</v>
+        <v>1276.718004796594</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.909295906277</v>
+        <v>1084.196678446173</v>
       </c>
     </row>
     <row r="34">
@@ -6859,7 +6859,7 @@
         <v>136.7231622868854</v>
       </c>
       <c r="K34" t="n">
-        <v>305.7355192334112</v>
+        <v>170.3273500315288</v>
       </c>
       <c r="L34" t="n">
         <v>406.3425986336707</v>
@@ -6868,13 +6868,13 @@
         <v>524.3361047612724</v>
       </c>
       <c r="N34" t="n">
-        <v>719.8251412174677</v>
+        <v>757.5955894709872</v>
       </c>
       <c r="O34" t="n">
-        <v>953.6969569150399</v>
+        <v>856.0592359666769</v>
       </c>
       <c r="P34" t="n">
-        <v>1016.665440643178</v>
+        <v>919.0277196948147</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
@@ -6932,31 +6932,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>403.4153465927299</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687085</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421796</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
         <v>482.8431151521678</v>
@@ -7011,13 +7011,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>107.8392327839467</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L37" t="n">
         <v>231.5307021686421</v>
@@ -7126,19 +7126,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
@@ -7178,22 +7178,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>826.9339095659942</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1384.640850310115</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N38" t="n">
-        <v>1762.97220899783</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>2232.444567961697</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.60146441775</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7284,16 +7284,16 @@
         <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
         <v>1089.832877645391</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>74.23504503930334</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>74.23504503930334</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>107.8392327839468</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>208.4463121842062</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>326.439818311808</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>444.8621600614084</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O40" t="n">
         <v>566.4101965415339</v>
@@ -7363,19 +7363,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X40" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7406,10 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
         <v>527.7073651707066</v>
@@ -7418,19 +7418,19 @@
         <v>875.5927382556529</v>
       </c>
       <c r="M41" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N41" t="n">
-        <v>1647.163263196456</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P41" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7467,31 +7467,31 @@
         <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670345</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>106.8803794431066</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>207.4874588433661</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962438</v>
+        <v>325.4809649709678</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>443.9033067205682</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>542.3669532162579</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7649,25 +7649,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>479.0485364810482</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>826.9339095659944</v>
+        <v>751.3007196776759</v>
       </c>
       <c r="M44" t="n">
-        <v>1384.640850310115</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N44" t="n">
-        <v>1762.97220899783</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O44" t="n">
-        <v>2067.976793470664</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P44" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,10 +7688,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E45" t="n">
         <v>482.8431151521678</v>
@@ -7767,10 +7767,10 @@
         <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y45" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C46" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D46" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E46" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F46" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G46" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D46" t="n">
-        <v>51.10067436208574</v>
-      </c>
-      <c r="E46" t="n">
-        <v>51.10067436208574</v>
-      </c>
-      <c r="F46" t="n">
-        <v>66.12215891288227</v>
-      </c>
-      <c r="G46" t="n">
-        <v>65.00954678826454</v>
-      </c>
       <c r="H46" t="n">
-        <v>73.27619169846319</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I46" t="n">
-        <v>73.27619169846319</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="J46" t="n">
-        <v>73.27619169846319</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="K46" t="n">
-        <v>106.8803794431066</v>
+        <v>92.9715070169278</v>
       </c>
       <c r="L46" t="n">
-        <v>207.4874588433661</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M46" t="n">
-        <v>325.4809649709678</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N46" t="n">
-        <v>443.9033067205682</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O46" t="n">
-        <v>542.3669532162579</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P46" t="n">
-        <v>605.3354369443957</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R46" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T46" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V46" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>297.1946741574606</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7988,7 +7988,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355793</v>
+        <v>444.3566395505262</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -8055,10 +8055,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8067,13 +8067,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>600.6529294339225</v>
+        <v>514.2265368634373</v>
       </c>
       <c r="O3" t="n">
-        <v>413.1186425070384</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>113.7351914448925</v>
@@ -8222,7 +8222,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>460.1732313556291</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>294.1439584378739</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8292,10 +8292,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>318.241189821732</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8307,13 +8307,13 @@
         <v>600.6529294339225</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>266.2293398775516</v>
       </c>
       <c r="P6" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8541,16 +8541,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>333.2735058407155</v>
       </c>
       <c r="O9" t="n">
-        <v>355.4555648676831</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -9021,7 +9021,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9480,7 +9480,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566037</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>79.72910749179312</v>
       </c>
       <c r="C11" t="n">
         <v>286.2199636654877</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.194569388259</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.46222820091663</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>41.36773716192897</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250307</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.02535242790356</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548195</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.59446668126139</v>
       </c>
       <c r="F13" t="n">
-        <v>59.0613910094477</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.33609373079554</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348596</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.13210615673262</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>111.0902329322539</v>
+        <v>108.3877842736475</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9203498046127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.208646707806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>298.9434052799213</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825898</v>
+        <v>79.194569388259</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091661</v>
+        <v>93.46222820091663</v>
       </c>
       <c r="T14" t="n">
-        <v>101.9952423864717</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>34.37219260001973</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250306</v>
+        <v>89.82535758250307</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.02535242790356</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548195</v>
       </c>
       <c r="E16" t="n">
-        <v>40.02638576958709</v>
+        <v>58.59446668126139</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944769</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079554</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348595</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.86655653831531</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.13210615673262</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553163</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.952706237445</v>
+        <v>47.0018595647918</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.147182855075665e-12</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>997911.2786424363</v>
+        <v>997911.2786424365</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>345430.8272223817</v>
+      </c>
+      <c r="C2" t="n">
+        <v>345430.8272223817</v>
+      </c>
+      <c r="D2" t="n">
+        <v>345430.8272223818</v>
+      </c>
+      <c r="E2" t="n">
+        <v>299999.5445877527</v>
+      </c>
+      <c r="F2" t="n">
+        <v>299999.5445877527</v>
+      </c>
+      <c r="G2" t="n">
         <v>345430.8272223815</v>
-      </c>
-      <c r="C2" t="n">
-        <v>345430.8272223818</v>
-      </c>
-      <c r="D2" t="n">
-        <v>345430.8272223817</v>
-      </c>
-      <c r="E2" t="n">
-        <v>299999.5445877528</v>
-      </c>
-      <c r="F2" t="n">
-        <v>299999.5445877528</v>
-      </c>
-      <c r="G2" t="n">
-        <v>345430.8272223814</v>
       </c>
       <c r="H2" t="n">
         <v>345430.8272223814</v>
       </c>
       <c r="I2" t="n">
-        <v>345430.8272223815</v>
+        <v>345430.8272223813</v>
       </c>
       <c r="J2" t="n">
-        <v>345430.8272223815</v>
+        <v>345430.8272223825</v>
       </c>
       <c r="K2" t="n">
-        <v>345430.8272223816</v>
+        <v>345430.8272223826</v>
       </c>
       <c r="L2" t="n">
-        <v>345430.8272223817</v>
+        <v>345430.8272223818</v>
       </c>
       <c r="M2" t="n">
         <v>345430.8272223814</v>
       </c>
       <c r="N2" t="n">
-        <v>345430.8272223815</v>
+        <v>345430.8272223814</v>
       </c>
       <c r="O2" t="n">
         <v>345430.8272223814</v>
       </c>
       <c r="P2" t="n">
-        <v>345430.8272223815</v>
+        <v>345430.8272223814</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746846</v>
+        <v>9743.038208746821</v>
       </c>
       <c r="E3" t="n">
         <v>107390.8010757635</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207629</v>
+        <v>65879.57388207623</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.50932456558</v>
+        <v>23482.5093245656</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732366</v>
+        <v>43541.16890732373</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>194229.0330603501</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332932</v>
+        <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="F4" t="n">
         <v>118181.7253353295</v>
@@ -26439,10 +26439,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176368.812935792</v>
+        <v>176368.8129357921</v>
       </c>
       <c r="K4" t="n">
-        <v>176368.812935792</v>
+        <v>176368.8129357921</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
@@ -26454,7 +26454,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
         <v>175623.1205402357</v>
@@ -26476,10 +26476,10 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
+        <v>46561.98765560956</v>
+      </c>
+      <c r="F5" t="n">
         <v>46561.98765560957</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46561.98765560956</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264637</v>
@@ -26488,7 +26488,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="J5" t="n">
         <v>58458.01489582855</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-77987.1368212852</v>
+        <v>-77987.13682128505</v>
       </c>
       <c r="C6" t="n">
-        <v>87542.77662936585</v>
+        <v>87542.77662936579</v>
       </c>
       <c r="D6" t="n">
-        <v>84345.99504343022</v>
+        <v>84345.99504343042</v>
       </c>
       <c r="E6" t="n">
-        <v>27865.03052105023</v>
+        <v>27612.63450641337</v>
       </c>
       <c r="F6" t="n">
-        <v>135255.8315968138</v>
+        <v>135003.4355821768</v>
       </c>
       <c r="G6" t="n">
-        <v>57617.20360756019</v>
+        <v>57617.20360756025</v>
       </c>
       <c r="H6" t="n">
         <v>117004.8897894993</v>
       </c>
       <c r="I6" t="n">
-        <v>117004.8897894995</v>
+        <v>117004.8897894993</v>
       </c>
       <c r="J6" t="n">
-        <v>-100064.4800514822</v>
+        <v>-100064.4800514814</v>
       </c>
       <c r="K6" t="n">
-        <v>110603.999390761</v>
+        <v>110603.999390762</v>
       </c>
       <c r="L6" t="n">
-        <v>46117.2308834932</v>
+        <v>46117.23088349332</v>
       </c>
       <c r="M6" t="n">
         <v>93522.38046493381</v>
       </c>
       <c r="N6" t="n">
-        <v>117004.8897894995</v>
+        <v>117004.8897894994</v>
       </c>
       <c r="O6" t="n">
-        <v>73463.72088217569</v>
+        <v>73463.72088217561</v>
       </c>
       <c r="P6" t="n">
-        <v>117004.8897894995</v>
+        <v>117004.8897894994</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>91.89445741503295</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,10 +26707,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K2" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L2" t="n">
         <v>136.7759284867499</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="F4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="F4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="G4" t="n">
         <v>638.7584295260717</v>
@@ -26808,25 +26808,25 @@
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="J4" t="n">
-        <v>783.5790706859293</v>
+        <v>783.5790706859292</v>
       </c>
       <c r="K4" t="n">
-        <v>783.5790706859293</v>
+        <v>783.5790706859292</v>
       </c>
       <c r="L4" t="n">
         <v>752.2136577871531</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="N4" t="n">
         <v>638.7584295260716</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742398</v>
+        <v>74.23460772742399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415458</v>
+        <v>54.42646113415466</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259537</v>
+        <v>82.3494673525953</v>
       </c>
       <c r="M2" t="n">
-        <v>29.35313665570698</v>
+        <v>29.353136655707</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415458</v>
+        <v>54.42646113415466</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877619</v>
+        <v>31.3654128987761</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742398</v>
+        <v>74.23460772742399</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415458</v>
+        <v>54.42646113415466</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877619</v>
+        <v>31.3654128987761</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>206.5758500686397</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>86.4443342665179</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>141.3056364467795</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>43.87259663666714</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27594,13 +27594,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>14.6841360714634</v>
+        <v>167.2159391354158</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>275.0670669623906</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.242789700481183</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>84.1428168278521</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>189.3526455560687</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,13 +27777,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27792,7 +27792,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>16.702842487553</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>279.424589878773</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>234.9304120964178</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>48.09428450072002</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>77.46817523851735</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,10 +27983,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>37.50737411697168</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>156.5350842883419</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28029,10 +28029,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>57.09611739616891</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28111,19 +28111,19 @@
         <v>91.89445741503295</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K11" t="n">
-        <v>81.65903375748312</v>
+        <v>79.49647998155532</v>
       </c>
       <c r="L11" t="n">
         <v>91.89445741503295</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N11" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>91.89445741503295</v>
@@ -28132,10 +28132,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>91.89445741503295</v>
-      </c>
-      <c r="R11" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>91.89445741503295</v>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M14" t="n">
-        <v>79.49647998155547</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>81.65903375748326</v>
       </c>
       <c r="O14" t="n">
-        <v>91.89445741503296</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503296</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="15">
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.56549128550315</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="17">
@@ -28588,25 +28588,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="P17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>116.9787331327008</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28822,22 +28822,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>116.9787331327009</v>
-      </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>40.58157162934941</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>14.5654912855039</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29062,14 +29062,14 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M23" t="n">
-        <v>116.978733132701</v>
-      </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
@@ -29077,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>40.58157162934964</v>
       </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="R23" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29232,10 +29232,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>46.68561682995293</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="P26" t="n">
-        <v>122.040606989233</v>
+        <v>83.11144176675856</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="27">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>14.56549128550367</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6610688615786</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N28" t="n">
-        <v>15.49354158420554</v>
+        <v>46.54597631296535</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6610688615786</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.6610688615786</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J29" t="n">
-        <v>128.6610688615786</v>
+        <v>83.11144176675842</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="M29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N29" t="n">
-        <v>83.11144176675975</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="O29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="P29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="30">
@@ -29642,13 +29642,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L31" t="n">
-        <v>128.6610688615786</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>15.49354158420346</v>
       </c>
       <c r="N31" t="n">
-        <v>128.6610688615786</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="P31" t="n">
-        <v>84.69794424581515</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="R31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="32">
@@ -29773,28 +29773,28 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="M32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708588</v>
       </c>
       <c r="N32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="P32" t="n">
-        <v>77.81815591473054</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="S32" t="n">
         <v>136.7759284867499</v>
@@ -29831,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29931,25 +29931,25 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>77.84514616827774</v>
+        <v>115.9971141011257</v>
       </c>
       <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30010,28 +30010,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>40.58157162934921</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30162,16 +30162,16 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="L37" t="n">
-        <v>23.31756564084432</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30250,19 +30250,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>116.9787331327008</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>116.9787331327004</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30356,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30399,7 +30399,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>46.68561682995299</v>
       </c>
       <c r="O40" t="n">
-        <v>23.31756564084428</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30481,28 +30481,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>116.9787331327003</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30627,13 +30627,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>23.16225373803864</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
@@ -30721,28 +30721,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>116.978733132701</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>40.58157162934901</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>14.56549128550344</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>38.33547045601495</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.31422167088648</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -32567,7 +32567,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>118.3716701834139</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34708,7 +34708,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>257.958525378296</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34787,13 +34787,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>493.9377883662141</v>
+        <v>407.511395795729</v>
       </c>
       <c r="O3" t="n">
-        <v>297.2591938959274</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>273.01691685847</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>106.2671493867174</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>206.2450206550653</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35024,16 +35024,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>150.3698912664405</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35261,16 +35261,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>226.5583647730072</v>
       </c>
       <c r="O9" t="n">
-        <v>239.596116256572</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>164.6202597107962</v>
       </c>
       <c r="K11" t="n">
-        <v>324.2250661259505</v>
+        <v>322.0625123500228</v>
       </c>
       <c r="L11" t="n">
         <v>443.2938241675039</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N11" t="n">
-        <v>474.0473449783822</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
         <v>399.9798962764814</v>
@@ -35428,10 +35428,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.2805722499188</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.162553775927762</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35653,13 +35653,13 @@
         <v>443.2938241675039</v>
       </c>
       <c r="M14" t="n">
-        <v>476.7077590250786</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>463.8119213208325</v>
       </c>
       <c r="O14" t="n">
-        <v>399.9798962764814</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
         <v>230.4615115717709</v>
@@ -35668,7 +35668,7 @@
         <v>187.2805722499188</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927776</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506396</v>
+        <v>32.43779121506395</v>
       </c>
       <c r="K16" t="n">
-        <v>125.8380813995213</v>
+        <v>125.8380813995212</v>
       </c>
       <c r="L16" t="n">
         <v>193.5177699405476</v>
@@ -35820,10 +35820,10 @@
         <v>191.3526861985579</v>
       </c>
       <c r="P16" t="n">
-        <v>155.498986433354</v>
+        <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218511</v>
+        <v>53.74248948218509</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35893,16 +35893,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941495</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3648479675866</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N20" t="n">
-        <v>499.1316206960502</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907978</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
@@ -36142,7 +36142,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36215,7 +36215,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q21" t="n">
         <v>159.3652826117113</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.9436239844883</v>
+        <v>80.62924081444126</v>
       </c>
       <c r="L22" t="n">
         <v>101.6233125255146</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36358,13 +36358,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L23" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>514.1900121762242</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N23" t="n">
         <v>382.1528875633492</v>
@@ -36373,13 +36373,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011206</v>
       </c>
       <c r="Q23" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233492</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117112</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36528,10 +36528,10 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>110.2901458482739</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>201.3868711573419</v>
       </c>
       <c r="K26" t="n">
-        <v>371.227101230046</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140495</v>
+        <v>480.0604356140496</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051017</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249278</v>
+        <v>510.8139564249279</v>
       </c>
       <c r="O26" t="n">
-        <v>436.746507723027</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P26" t="n">
-        <v>352.502118561004</v>
+        <v>313.5729533385295</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964644</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>38.92916522247347</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160958</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>162.6046928460669</v>
       </c>
       <c r="L28" t="n">
-        <v>101.6233125255146</v>
+        <v>230.2843813870933</v>
       </c>
       <c r="M28" t="n">
-        <v>119.1853597248502</v>
+        <v>247.8464285864289</v>
       </c>
       <c r="N28" t="n">
-        <v>135.1120686040039</v>
+        <v>166.1645033327637</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451035</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P28" t="n">
         <v>192.2655978798996</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.50910092873072</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573419</v>
+        <v>155.8372440625217</v>
       </c>
       <c r="K29" t="n">
-        <v>371.227101230046</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140495</v>
+        <v>480.0604356140496</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051017</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
-        <v>465.264329330109</v>
+        <v>510.8139564249279</v>
       </c>
       <c r="O29" t="n">
-        <v>436.746507723027</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333495</v>
+        <v>359.1225804333496</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964644</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247339</v>
+        <v>38.92916522247347</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.20440266160966</v>
       </c>
       <c r="K31" t="n">
-        <v>33.9436239844883</v>
+        <v>162.6046928460669</v>
       </c>
       <c r="L31" t="n">
-        <v>230.2843813870932</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
-        <v>119.1853597248502</v>
+        <v>134.6789013090537</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813769</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>228.1192976451035</v>
+        <v>228.1192976451036</v>
       </c>
       <c r="P31" t="n">
-        <v>148.3024732641362</v>
+        <v>192.2655978798996</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873072</v>
+        <v>90.5091009287308</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684674</v>
+        <v>379.3419608552174</v>
       </c>
       <c r="L32" t="n">
         <v>488.1752952392209</v>
       </c>
       <c r="M32" t="n">
-        <v>533.9872075302731</v>
+        <v>427.9854101106091</v>
       </c>
       <c r="N32" t="n">
-        <v>518.9288160500992</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
         <v>444.8613673481984</v>
       </c>
       <c r="P32" t="n">
-        <v>308.2796674865015</v>
+        <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
         <v>232.1620433216358</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>47.04402484764475</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>77.31926228678094</v>
       </c>
       <c r="K34" t="n">
-        <v>170.7195524712382</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>238.3992410122646</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>197.4636731880761</v>
+        <v>235.615641120924</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2341572702749</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.62396055390208</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>283.1476039978166</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960502</v>
       </c>
       <c r="O35" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37458,16 +37458,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>33.9436239844883</v>
+        <v>80.62924081444126</v>
       </c>
       <c r="L37" t="n">
-        <v>124.940878166359</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
@@ -37546,19 +37546,19 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>468.3780998851718</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044714</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>119.6185270197983</v>
+        <v>166.3041438497513</v>
       </c>
       <c r="O40" t="n">
-        <v>122.7757944243692</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762241</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3648479675862</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37923,13 +37923,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>165.8709765548032</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
         <v>119.6185270197983</v>
@@ -37953,7 +37953,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>63.604529018321</v>
+        <v>86.76678275635965</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>359.5447655011685</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>391.98093838182</v>
       </c>
       <c r="M44" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>101.6233125255146</v>
+        <v>139.9587829815296</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.16225373803863</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
